--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,7 +661,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the coding value for classificiation of data elements.</t>
+    <t>Slice based on the category.coding value for classificiation of data elements.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -2099,7 +2099,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="60.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="549">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,14 +657,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the category.coding value for classificiation of data elements.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
+    <t>value:$this.code}
+value:$this.system}</t>
+  </si>
+  <si>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -2099,7 +2096,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3889,10 +3886,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3916,13 +3913,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3930,13 +3927,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3970,7 +3967,7 @@
         <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4040,13 +4037,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4054,10 +4051,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4080,13 +4077,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4137,7 +4134,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4172,10 +4169,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4204,7 +4201,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4257,7 +4254,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4292,10 +4289,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4318,19 +4315,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4379,7 +4376,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4400,10 +4397,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4414,10 +4411,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4440,13 +4437,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4497,7 +4494,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4532,10 +4529,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4564,7 +4561,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4617,7 +4614,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4652,10 +4649,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4681,65 +4678,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4760,10 +4757,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4774,10 +4771,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4800,16 +4797,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4859,7 +4856,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4880,10 +4877,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4894,10 +4891,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4923,65 +4920,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5002,10 +4999,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5016,10 +5013,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5042,19 +5039,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5103,7 +5100,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5124,10 +5121,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5138,10 +5135,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5164,19 +5161,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5225,7 +5222,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5246,10 +5243,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5260,10 +5257,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5286,19 +5283,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5347,7 +5344,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5368,10 +5365,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5382,13 +5379,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5422,7 +5419,7 @@
         <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5432,7 +5429,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5492,13 +5489,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5506,13 +5503,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
@@ -5537,16 +5534,16 @@
         <v>198</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>201</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5556,7 +5553,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5574,7 +5571,7 @@
         <v>119</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>204</v>
@@ -5616,13 +5613,13 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5630,14 +5627,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5659,16 +5656,16 @@
         <v>198</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5693,14 +5690,14 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5717,7 +5714,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>92</v>
@@ -5732,30 +5729,30 @@
         <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AO30" t="s" s="2">
+      <c r="AP30" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5778,19 +5775,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5839,7 +5836,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5854,19 +5851,19 @@
         <v>170</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5874,10 +5871,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5900,16 +5897,16 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5959,7 +5956,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5980,13 +5977,13 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -5994,14 +5991,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6020,19 +6017,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6081,7 +6078,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6096,19 +6093,19 @@
         <v>170</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6116,14 +6113,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6142,19 +6139,19 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6203,7 +6200,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6218,19 +6215,19 @@
         <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6238,10 +6235,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6264,16 +6261,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6323,7 +6320,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6344,13 +6341,13 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6358,10 +6355,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6384,19 +6381,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6445,7 +6442,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6460,19 +6457,19 @@
         <v>170</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6480,10 +6477,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6506,19 +6503,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6567,7 +6564,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6576,7 +6573,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>105</v>
@@ -6585,27 +6582,27 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>384</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6631,16 +6628,16 @@
         <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6665,14 +6662,14 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6689,7 +6686,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6698,7 +6695,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>105</v>
@@ -6713,7 +6710,7 @@
         <v>106</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6724,14 +6721,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6753,16 +6750,16 @@
         <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6787,14 +6784,14 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6811,7 +6808,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6829,27 +6826,27 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>406</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6872,19 +6869,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6933,7 +6930,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6954,10 +6951,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6968,10 +6965,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6997,13 +6994,13 @@
         <v>198</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7029,14 +7026,14 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>420</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7053,7 +7050,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7071,27 +7068,27 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>424</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7117,16 +7114,16 @@
         <v>198</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7151,14 +7148,14 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7175,7 +7172,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7196,10 +7193,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7210,10 +7207,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7236,16 +7233,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7295,7 +7292,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7313,27 +7310,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>442</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7356,16 +7353,16 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7415,7 +7412,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7433,27 +7430,27 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP44" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>451</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7476,19 +7473,19 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7537,7 +7534,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7549,19 +7546,19 @@
         <v>104</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7572,10 +7569,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7598,13 +7595,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7655,7 +7652,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7690,10 +7687,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7722,7 +7719,7 @@
         <v>141</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>143</v>
@@ -7775,7 +7772,7 @@
         <v>146</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7810,14 +7807,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7839,10 +7836,10 @@
         <v>140</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>143</v>
@@ -7897,7 +7894,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7932,10 +7929,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7958,16 +7955,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8017,7 +8014,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8026,22 +8023,22 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8052,10 +8049,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8078,16 +8075,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>479</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8137,7 +8134,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8146,22 +8143,22 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AJ50" t="s" s="2">
+      <c r="AK50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AK50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>475</v>
-      </c>
       <c r="AN50" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8172,10 +8169,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8201,16 +8198,16 @@
         <v>198</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8238,11 +8235,11 @@
         <v>119</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>487</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8259,7 +8256,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8277,13 +8274,13 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>489</v>
-      </c>
       <c r="AN51" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8294,10 +8291,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8323,16 +8320,16 @@
         <v>198</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8357,14 +8354,14 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>496</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8381,7 +8378,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8399,13 +8396,13 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AM52" t="s" s="2">
-        <v>489</v>
-      </c>
       <c r="AN52" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8416,10 +8413,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8442,19 +8439,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8503,7 +8500,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8515,19 +8512,19 @@
         <v>104</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8538,10 +8535,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8564,16 +8561,16 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="N54" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8623,7 +8620,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8644,10 +8641,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8658,10 +8655,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8684,16 +8681,16 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8743,7 +8740,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8764,10 +8761,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8778,10 +8775,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8804,16 +8801,16 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8863,7 +8860,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8884,10 +8881,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8898,10 +8895,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8924,19 +8921,19 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8985,7 +8982,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9006,10 +9003,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9020,10 +9017,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9046,13 +9043,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9103,7 +9100,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9138,10 +9135,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9170,7 +9167,7 @@
         <v>141</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>143</v>
@@ -9223,7 +9220,7 @@
         <v>146</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9258,14 +9255,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9287,10 +9284,10 @@
         <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>143</v>
@@ -9345,7 +9342,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9380,10 +9377,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9409,16 +9406,16 @@
         <v>198</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="N61" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="O61" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9443,14 +9440,14 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Z61" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9467,7 +9464,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>92</v>
@@ -9485,16 +9482,16 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>82</v>
@@ -9502,10 +9499,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9528,19 +9525,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="O62" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9589,7 +9586,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9607,27 +9604,27 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP62" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>384</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9653,16 +9650,16 @@
         <v>198</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N63" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="O63" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9687,14 +9684,14 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9711,7 +9708,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9720,7 +9717,7 @@
         <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -9735,7 +9732,7 @@
         <v>106</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9746,14 +9743,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9775,16 +9772,16 @@
         <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9809,14 +9806,14 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
       </c>
@@ -9833,7 +9830,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9851,27 +9848,27 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>406</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9897,16 +9894,16 @@
         <v>83</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>549</v>
-      </c>
       <c r="N65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9955,7 +9952,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9976,10 +9973,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="550">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,11 +657,14 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t>value:$this.code}
-value:$this.system}</t>
+    <t xml:space="preserve">value:coding.code}
+</t>
   </si>
   <si>
     <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -3886,10 +3889,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3913,13 +3916,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3927,13 +3930,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3967,7 +3970,7 @@
         <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4037,13 +4040,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4051,10 +4054,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4077,13 +4080,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4134,7 +4137,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4169,10 +4172,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4201,7 +4204,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4254,7 +4257,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4289,10 +4292,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4300,13 +4303,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4315,19 +4318,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4376,7 +4379,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4397,10 +4400,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4411,10 +4414,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4437,13 +4440,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4494,7 +4497,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4529,10 +4532,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4561,7 +4564,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4614,7 +4617,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4649,10 +4652,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4660,13 +4663,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4678,23 +4681,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -4736,7 +4739,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4757,10 +4760,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4771,10 +4774,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4797,16 +4800,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4856,7 +4859,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4877,10 +4880,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4891,10 +4894,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4902,13 +4905,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -4920,23 +4923,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -4978,7 +4981,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4999,10 +5002,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5013,10 +5016,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5039,19 +5042,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5100,7 +5103,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5121,10 +5124,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5135,10 +5138,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5161,19 +5164,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5222,7 +5225,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5243,10 +5246,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5257,10 +5260,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5283,19 +5286,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5344,7 +5347,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5365,10 +5368,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5379,13 +5382,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5419,7 +5422,7 @@
         <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5429,7 +5432,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5489,13 +5492,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5503,13 +5506,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
@@ -5534,16 +5537,16 @@
         <v>198</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>201</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5553,7 +5556,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5571,7 +5574,7 @@
         <v>119</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>204</v>
@@ -5613,13 +5616,13 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5627,14 +5630,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5656,16 +5659,16 @@
         <v>198</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5690,13 +5693,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5714,7 +5717,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>92</v>
@@ -5729,30 +5732,30 @@
         <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5775,19 +5778,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5836,7 +5839,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5851,19 +5854,19 @@
         <v>170</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5871,10 +5874,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5897,16 +5900,16 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5956,7 +5959,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5977,13 +5980,13 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -5991,14 +5994,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6017,19 +6020,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6078,7 +6081,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6093,19 +6096,19 @@
         <v>170</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6113,14 +6116,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6139,19 +6142,19 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6200,7 +6203,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6215,19 +6218,19 @@
         <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6235,10 +6238,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6261,16 +6264,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6320,7 +6323,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6341,13 +6344,13 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6355,10 +6358,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6381,19 +6384,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6442,7 +6445,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6457,19 +6460,19 @@
         <v>170</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6477,10 +6480,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6503,19 +6506,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6564,7 +6567,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6573,7 +6576,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>105</v>
@@ -6582,27 +6585,27 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6628,16 +6631,16 @@
         <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6662,13 +6665,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6686,7 +6689,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6695,7 +6698,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>105</v>
@@ -6710,7 +6713,7 @@
         <v>106</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6721,14 +6724,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6750,16 +6753,16 @@
         <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6784,13 +6787,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6808,7 +6811,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6826,27 +6829,27 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6869,19 +6872,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6930,7 +6933,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6951,10 +6954,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6965,10 +6968,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6994,13 +6997,13 @@
         <v>198</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7026,13 +7029,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -7050,7 +7053,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7068,27 +7071,27 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7114,16 +7117,16 @@
         <v>198</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7148,13 +7151,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7172,7 +7175,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7193,10 +7196,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7207,10 +7210,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7233,16 +7236,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7292,7 +7295,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7310,27 +7313,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7353,16 +7356,16 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7412,7 +7415,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7430,27 +7433,27 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7473,19 +7476,19 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7534,7 +7537,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7546,7 +7549,7 @@
         <v>104</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7555,10 +7558,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7569,10 +7572,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7595,13 +7598,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7652,7 +7655,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7687,10 +7690,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7719,7 +7722,7 @@
         <v>141</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>143</v>
@@ -7772,7 +7775,7 @@
         <v>146</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7807,14 +7810,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7836,10 +7839,10 @@
         <v>140</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>143</v>
@@ -7894,7 +7897,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7929,10 +7932,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7955,16 +7958,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8014,7 +8017,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8023,10 +8026,10 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8035,10 +8038,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8049,10 +8052,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8075,16 +8078,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8134,7 +8137,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8143,10 +8146,10 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8155,10 +8158,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8169,10 +8172,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8198,16 +8201,16 @@
         <v>198</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8235,10 +8238,10 @@
         <v>119</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8256,7 +8259,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8274,13 +8277,13 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8291,10 +8294,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8320,16 +8323,16 @@
         <v>198</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8354,13 +8357,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8378,7 +8381,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8396,13 +8399,13 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8413,10 +8416,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8439,19 +8442,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8500,7 +8503,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8512,7 +8515,7 @@
         <v>104</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8521,10 +8524,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8535,10 +8538,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8561,16 +8564,16 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8620,7 +8623,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8641,10 +8644,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8655,10 +8658,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8681,16 +8684,16 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8740,7 +8743,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8761,10 +8764,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8775,10 +8778,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8801,16 +8804,16 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8860,7 +8863,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8881,10 +8884,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8895,10 +8898,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8921,19 +8924,19 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8982,7 +8985,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9003,10 +9006,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9017,10 +9020,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9043,13 +9046,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9100,7 +9103,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9135,10 +9138,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9167,7 +9170,7 @@
         <v>141</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>143</v>
@@ -9220,7 +9223,7 @@
         <v>146</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9255,14 +9258,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9284,10 +9287,10 @@
         <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>143</v>
@@ -9342,7 +9345,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9377,10 +9380,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9406,16 +9409,16 @@
         <v>198</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9440,13 +9443,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9464,7 +9467,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>92</v>
@@ -9482,16 +9485,16 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>82</v>
@@ -9499,10 +9502,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9525,19 +9528,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9586,7 +9589,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9604,27 +9607,27 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9650,16 +9653,16 @@
         <v>198</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9684,13 +9687,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9708,7 +9711,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9717,7 +9720,7 @@
         <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -9732,7 +9735,7 @@
         <v>106</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9743,14 +9746,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9772,16 +9775,16 @@
         <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9806,13 +9809,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9830,7 +9833,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9848,27 +9851,27 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9894,16 +9897,16 @@
         <v>83</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9952,7 +9955,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9973,10 +9976,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l2-gender.xlsx
+++ b/output/StructureDefinition-cls-l2-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
